--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
@@ -1,21 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B82F8E2-88D1-BA4C-8B4E-926748308693}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E3A1C-7883-BD41-AA04-D4BB803D1857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17460" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
-    <sheet name="screenerScenarioAdult-NeedsLAR" sheetId="1" r:id="rId1"/>
-    <sheet name="IIQScenario1" sheetId="2" r:id="rId2"/>
-    <sheet name="RASSurveyScenario1" sheetId="7" r:id="rId3"/>
+    <sheet name="rasE-ConsentAdult-NeedsLAR" sheetId="8" r:id="rId1"/>
+    <sheet name="screenerScenarioAdult-NeedsLAR" sheetId="1" r:id="rId2"/>
+    <sheet name="IIQScenario1" sheetId="2" r:id="rId3"/>
+    <sheet name="RASSurveyScenario1" sheetId="7" r:id="rId4"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="508" uniqueCount="347">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="399">
   <si>
     <t>Question</t>
   </si>
@@ -1153,6 +1154,162 @@
   </si>
   <si>
     <t>CHARMSRasParent</t>
+  </si>
+  <si>
+    <t>Consent call scheduled time</t>
+  </si>
+  <si>
+    <t>Today</t>
+  </si>
+  <si>
+    <t>Consent Call Date</t>
+  </si>
+  <si>
+    <t>Cohort</t>
+  </si>
+  <si>
+    <t>Consent Form</t>
+  </si>
+  <si>
+    <t>Response Type</t>
+  </si>
+  <si>
+    <t>CHARMS e-consent</t>
+  </si>
+  <si>
+    <t>Consent Version</t>
+  </si>
+  <si>
+    <t>Consent/Assent Status</t>
+  </si>
+  <si>
+    <t>Consent Type</t>
+  </si>
+  <si>
+    <t>Parent/Guardian Status</t>
+  </si>
+  <si>
+    <t>Legal Documentation Received</t>
+  </si>
+  <si>
+    <t>Not developmentally able to give assent</t>
+  </si>
+  <si>
+    <t>Number of Guardian Signatures required</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 1 Signed</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 2 Signed</t>
+  </si>
+  <si>
+    <t>Number of LARs</t>
+  </si>
+  <si>
+    <t>LAR 1 Signed</t>
+  </si>
+  <si>
+    <t>LAR 2 Signed</t>
+  </si>
+  <si>
+    <t>Assigned to</t>
+  </si>
+  <si>
+    <t>Consent Status</t>
+  </si>
+  <si>
+    <t>Consent Date</t>
+  </si>
+  <si>
+    <t>Consent By</t>
+  </si>
+  <si>
+    <t>Rene Aguilar</t>
+  </si>
+  <si>
+    <t>Current/Previous</t>
+  </si>
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>RASopathy</t>
+  </si>
+  <si>
+    <t>Copy of Consent/Assent Provided Before Signing</t>
+  </si>
+  <si>
+    <t>Protocol Discussed in Private Setting</t>
+  </si>
+  <si>
+    <t>Participant Verbalized Understanding of Study Conditions and Participation</t>
+  </si>
+  <si>
+    <t>Questions Addressed Before Signing</t>
+  </si>
+  <si>
+    <t>Consent/Assent Obtained Before Study Procedures</t>
+  </si>
+  <si>
+    <t>Copy of Signed/Dated Consent/Assent Given to Participant</t>
+  </si>
+  <si>
+    <t>Short Form Consent</t>
+  </si>
+  <si>
+    <t>Interpreter used?</t>
+  </si>
+  <si>
+    <t>Interpreter Name or ID</t>
+  </si>
+  <si>
+    <t>Interpreter Language</t>
+  </si>
+  <si>
+    <t>Interpreter Witness?</t>
+  </si>
+  <si>
+    <t>Interpreter Signed</t>
+  </si>
+  <si>
+    <t>Future Use of Specimens and Data by NIH</t>
+  </si>
+  <si>
+    <t>Future Use by Collaborators</t>
+  </si>
+  <si>
+    <t>Future Identifiable Use by Collaborators</t>
+  </si>
+  <si>
+    <t>Return of Genetic Findings</t>
+  </si>
+  <si>
+    <t>Created</t>
+  </si>
+  <si>
+    <t>Sent to Medidata</t>
+  </si>
+  <si>
+    <t>Assent signed</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Adult - Needs LAR</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>Date of birth month</t>
+  </si>
+  <si>
+    <t>Date of birth year</t>
+  </si>
+  <si>
+    <t>1990</t>
   </si>
 </sst>
 </file>
@@ -1224,7 +1381,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1265,6 +1422,14 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1580,11 +1745,318 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C412C3E-8140-164D-B3C6-DFE95A134A20}">
   <dimension ref="A1:B43"/>
   <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="63.83203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="B1" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" s="16" t="s">
+        <v>350</v>
+      </c>
+      <c r="B3" s="16"/>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="B4" s="16"/>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="B5" s="16" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" s="16" t="s">
+        <v>354</v>
+      </c>
+      <c r="B6" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" s="16" t="s">
+        <v>355</v>
+      </c>
+      <c r="B7" s="16"/>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" s="16" t="s">
+        <v>356</v>
+      </c>
+      <c r="B8" s="16" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="B9" s="16"/>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10" s="16" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10" s="16"/>
+    </row>
+    <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
+      <c r="A11" s="17" t="s">
+        <v>359</v>
+      </c>
+      <c r="B11" s="16"/>
+    </row>
+    <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
+      <c r="A12" s="17" t="s">
+        <v>360</v>
+      </c>
+      <c r="B12" s="16"/>
+    </row>
+    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A13" s="17" t="s">
+        <v>361</v>
+      </c>
+      <c r="B13" s="16"/>
+    </row>
+    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A14" s="17" t="s">
+        <v>362</v>
+      </c>
+      <c r="B14" s="16"/>
+    </row>
+    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A15" s="17" t="s">
+        <v>363</v>
+      </c>
+      <c r="B15" s="16" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A16" s="17" t="s">
+        <v>364</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A17" s="17" t="s">
+        <v>365</v>
+      </c>
+      <c r="B17" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A18" s="17" t="s">
+        <v>366</v>
+      </c>
+      <c r="B18" s="16"/>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>367</v>
+      </c>
+      <c r="B19" s="16"/>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
+        <v>368</v>
+      </c>
+      <c r="B20" s="16" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>369</v>
+      </c>
+      <c r="B21" s="16" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
+        <v>371</v>
+      </c>
+      <c r="B22" s="16"/>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23" s="16" t="s">
+        <v>372</v>
+      </c>
+      <c r="B23" s="16" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24" s="16" t="s">
+        <v>374</v>
+      </c>
+      <c r="B24" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A25" s="16" t="s">
+        <v>375</v>
+      </c>
+      <c r="B25" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A26" s="16" t="s">
+        <v>376</v>
+      </c>
+      <c r="B26" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A27" s="16" t="s">
+        <v>377</v>
+      </c>
+      <c r="B27" s="16" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A28" s="16" t="s">
+        <v>378</v>
+      </c>
+      <c r="B28" s="16"/>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A29" s="16" t="s">
+        <v>379</v>
+      </c>
+      <c r="B29" s="16"/>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A30" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="B30" s="16"/>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="16" t="s">
+        <v>381</v>
+      </c>
+      <c r="B31" s="16"/>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="16" t="s">
+        <v>382</v>
+      </c>
+      <c r="B32" s="16"/>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A33" s="16" t="s">
+        <v>383</v>
+      </c>
+      <c r="B33" s="16"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A34" s="16" t="s">
+        <v>384</v>
+      </c>
+      <c r="B34" s="16"/>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A35" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="B35" s="16"/>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A36" s="16" t="s">
+        <v>386</v>
+      </c>
+      <c r="B36" s="16"/>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A37" s="16" t="s">
+        <v>387</v>
+      </c>
+      <c r="B37" s="16"/>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A38" s="16" t="s">
+        <v>388</v>
+      </c>
+      <c r="B38" s="16"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A39" s="16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B39" s="16"/>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A40" s="16" t="s">
+        <v>390</v>
+      </c>
+      <c r="B40" s="16"/>
+    </row>
+    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A41" s="17" t="s">
+        <v>391</v>
+      </c>
+      <c r="B41" s="16"/>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A42" s="16" t="s">
+        <v>392</v>
+      </c>
+      <c r="B42" s="16"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A43" s="16" t="s">
+        <v>393</v>
+      </c>
+      <c r="B43" s="16"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
+  <dimension ref="A1:B45"/>
+  <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1704,243 +2176,259 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B15" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="4" t="s">
-        <v>9</v>
+        <v>396</v>
+      </c>
+      <c r="B15" s="18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
+        <v>397</v>
+      </c>
+      <c r="B16" s="18" t="s">
+        <v>398</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>341</v>
+        <v>6</v>
       </c>
       <c r="B17" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B18" s="4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A19" s="2" t="s">
-        <v>12</v>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="B19" s="4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>45</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B24" s="4">
-        <v>22015</v>
+        <v>16</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B25" s="5" t="s">
-        <v>342</v>
+        <v>17</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B26" s="5" t="s">
-        <v>342</v>
+        <v>19</v>
+      </c>
+      <c r="B26" s="4">
+        <v>22015</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>26</v>
+        <v>21</v>
+      </c>
+      <c r="B27" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B28" s="4" t="s">
-        <v>47</v>
+        <v>22</v>
+      </c>
+      <c r="B28" s="5" t="s">
+        <v>342</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B29" s="4" t="s">
-        <v>46</v>
+        <v>26</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B31" s="4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B32" s="4" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A31" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="B31" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A32" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="33" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B33" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A35" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B35" s="4" t="s">
         <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B34" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A35" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35" s="4" t="s">
-        <v>9</v>
       </c>
     </row>
     <row r="36" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+      <c r="A37" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="B36" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A37" s="2" t="s">
+      <c r="B38" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="B37" s="4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="B39" s="4" t="s">
-        <v>41</v>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
-        <v>9</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B41" s="4" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B42" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A43" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B43" s="4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B44" s="4" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="323" x14ac:dyDescent="0.2">
-      <c r="A43" s="2" t="s">
+    <row r="45" spans="1:2" ht="323" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="B43" s="8" t="s">
+      <c r="B45" s="8" t="s">
         <v>260</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B25" r:id="rId1" xr:uid="{F82FA76E-2358-814A-8E85-BCB9636B476E}"/>
-    <hyperlink ref="B26" r:id="rId2" xr:uid="{9CF4B7EF-6998-144B-B594-2EFE15A9CFC2}"/>
+    <hyperlink ref="B27" r:id="rId1" xr:uid="{F82FA76E-2358-814A-8E85-BCB9636B476E}"/>
+    <hyperlink ref="B28" r:id="rId2" xr:uid="{9CF4B7EF-6998-144B-B594-2EFE15A9CFC2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDA38AB1-F752-BB4E-9CFB-C6D8167B319F}">
   <dimension ref="A1:B59"/>
   <sheetViews>
@@ -2432,7 +2920,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E89138E5-4B7A-8A4C-A60B-54B878E1BA10}">
   <dimension ref="A1:B163"/>
   <sheetViews>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD2E3A1C-7883-BD41-AA04-D4BB803D1857}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83773752-87FD-7B4D-A1F7-8B9902020403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="569" uniqueCount="399">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="401">
   <si>
     <t>Question</t>
   </si>
@@ -1311,14 +1311,19 @@
   <si>
     <t>1990</t>
   </si>
+  <si>
+    <t>October</t>
+  </si>
+  <si>
+    <t>October 31, 1990</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="1">
     <numFmt numFmtId="164" formatCode="mm/dd/yyyy;@"/>
-    <numFmt numFmtId="165" formatCode="m/d/yyyy;@"/>
   </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
@@ -1381,7 +1386,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1417,9 +1422,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="2" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1759,292 +1761,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="15" t="s">
         <v>347</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="15" t="s">
         <v>349</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="16" t="s">
+      <c r="A3" s="15" t="s">
         <v>350</v>
       </c>
-      <c r="B3" s="16"/>
+      <c r="B3" s="15"/>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="16" t="s">
+      <c r="A4" s="15" t="s">
         <v>351</v>
       </c>
-      <c r="B4" s="16"/>
+      <c r="B4" s="15"/>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="15" t="s">
         <v>352</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>353</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="16" t="s">
+      <c r="A6" s="15" t="s">
         <v>354</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="16" t="s">
+      <c r="A7" s="15" t="s">
         <v>355</v>
       </c>
-      <c r="B7" s="16"/>
+      <c r="B7" s="15"/>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="16" t="s">
+      <c r="A8" s="15" t="s">
         <v>356</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>394</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="16" t="s">
+      <c r="A9" s="15" t="s">
         <v>357</v>
       </c>
-      <c r="B9" s="16"/>
+      <c r="B9" s="15"/>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="16" t="s">
+      <c r="A10" s="15" t="s">
         <v>358</v>
       </c>
-      <c r="B10" s="16"/>
+      <c r="B10" s="15"/>
     </row>
     <row r="11" spans="1:2" ht="85" x14ac:dyDescent="0.2">
-      <c r="A11" s="17" t="s">
+      <c r="A11" s="16" t="s">
         <v>359</v>
       </c>
-      <c r="B11" s="16"/>
+      <c r="B11" s="15"/>
     </row>
     <row r="12" spans="1:2" ht="68" x14ac:dyDescent="0.2">
-      <c r="A12" s="17" t="s">
+      <c r="A12" s="16" t="s">
         <v>360</v>
       </c>
-      <c r="B12" s="16"/>
+      <c r="B12" s="15"/>
     </row>
     <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A13" s="17" t="s">
+      <c r="A13" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="B13" s="16"/>
+      <c r="B13" s="15"/>
     </row>
     <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
-      <c r="A14" s="17" t="s">
+      <c r="A14" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="16"/>
+      <c r="B14" s="15"/>
     </row>
     <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="17" t="s">
+      <c r="A15" s="16" t="s">
         <v>363</v>
       </c>
-      <c r="B15" s="16" t="s">
+      <c r="B15" s="15" t="s">
         <v>395</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A16" s="17" t="s">
+      <c r="A16" s="16" t="s">
         <v>364</v>
       </c>
-      <c r="B16" s="16" t="s">
+      <c r="B16" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A17" s="17" t="s">
+      <c r="A17" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="17" t="s">
+      <c r="A18" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="B18" s="16"/>
+      <c r="B18" s="15"/>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="16" t="s">
+      <c r="A19" s="15" t="s">
         <v>367</v>
       </c>
-      <c r="B19" s="16"/>
+      <c r="B19" s="15"/>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="16" t="s">
+      <c r="A20" s="15" t="s">
         <v>368</v>
       </c>
-      <c r="B20" s="16" t="s">
+      <c r="B20" s="15" t="s">
         <v>348</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="16" t="s">
+      <c r="A21" s="15" t="s">
         <v>369</v>
       </c>
-      <c r="B21" s="16" t="s">
+      <c r="B21" s="15" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="16" t="s">
+      <c r="A22" s="15" t="s">
         <v>371</v>
       </c>
-      <c r="B22" s="16"/>
+      <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A23" s="16" t="s">
+      <c r="A23" s="15" t="s">
         <v>372</v>
       </c>
-      <c r="B23" s="16" t="s">
+      <c r="B23" s="15" t="s">
         <v>373</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A24" s="16" t="s">
+      <c r="A24" s="15" t="s">
         <v>374</v>
       </c>
-      <c r="B24" s="16" t="s">
+      <c r="B24" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A25" s="16" t="s">
+      <c r="A25" s="15" t="s">
         <v>375</v>
       </c>
-      <c r="B25" s="16" t="s">
+      <c r="B25" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="15" t="s">
         <v>376</v>
       </c>
-      <c r="B26" s="16" t="s">
+      <c r="B26" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A27" s="16" t="s">
+      <c r="A27" s="15" t="s">
         <v>377</v>
       </c>
-      <c r="B27" s="16" t="s">
+      <c r="B27" s="15" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A28" s="16" t="s">
+      <c r="A28" s="15" t="s">
         <v>378</v>
       </c>
-      <c r="B28" s="16"/>
+      <c r="B28" s="15"/>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A29" s="16" t="s">
+      <c r="A29" s="15" t="s">
         <v>379</v>
       </c>
-      <c r="B29" s="16"/>
+      <c r="B29" s="15"/>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A30" s="16" t="s">
+      <c r="A30" s="15" t="s">
         <v>380</v>
       </c>
-      <c r="B30" s="16"/>
+      <c r="B30" s="15"/>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A31" s="16" t="s">
+      <c r="A31" s="15" t="s">
         <v>381</v>
       </c>
-      <c r="B31" s="16"/>
+      <c r="B31" s="15"/>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A32" s="16" t="s">
+      <c r="A32" s="15" t="s">
         <v>382</v>
       </c>
-      <c r="B32" s="16"/>
+      <c r="B32" s="15"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A33" s="16" t="s">
+      <c r="A33" s="15" t="s">
         <v>383</v>
       </c>
-      <c r="B33" s="16"/>
+      <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="16" t="s">
+      <c r="A34" s="15" t="s">
         <v>384</v>
       </c>
-      <c r="B34" s="16"/>
+      <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A35" s="16" t="s">
+      <c r="A35" s="15" t="s">
         <v>385</v>
       </c>
-      <c r="B35" s="16"/>
+      <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A36" s="16" t="s">
+      <c r="A36" s="15" t="s">
         <v>386</v>
       </c>
-      <c r="B36" s="16"/>
+      <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A37" s="16" t="s">
+      <c r="A37" s="15" t="s">
         <v>387</v>
       </c>
-      <c r="B37" s="16"/>
+      <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A38" s="16" t="s">
+      <c r="A38" s="15" t="s">
         <v>388</v>
       </c>
-      <c r="B38" s="16"/>
+      <c r="B38" s="15"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A39" s="16" t="s">
+      <c r="A39" s="15" t="s">
         <v>389</v>
       </c>
-      <c r="B39" s="16"/>
+      <c r="B39" s="15"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A40" s="16" t="s">
+      <c r="A40" s="15" t="s">
         <v>390</v>
       </c>
-      <c r="B40" s="16"/>
-    </row>
-    <row r="41" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A41" s="17" t="s">
+      <c r="B40" s="15"/>
+    </row>
+    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="16" t="s">
         <v>391</v>
       </c>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A42" s="16" t="s">
+      <c r="A42" s="15" t="s">
         <v>392</v>
       </c>
-      <c r="B42" s="16"/>
+      <c r="B42" s="15"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A43" s="16" t="s">
+      <c r="A43" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B43" s="16"/>
+      <c r="B43" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2056,7 +2058,7 @@
   <dimension ref="A1:B45"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2166,27 +2168,27 @@
         <v>339</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
         <v>340</v>
       </c>
-      <c r="B14" s="15">
-        <v>33176</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="B14" s="17" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="18" t="s">
         <v>396</v>
       </c>
-      <c r="B15" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" s="16" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="19" t="s">
+      <c r="B15" s="17" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" s="15" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="18" t="s">
         <v>397</v>
       </c>
-      <c r="B16" s="18" t="s">
+      <c r="B16" s="17" t="s">
         <v>398</v>
       </c>
     </row>
@@ -2323,7 +2325,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>30</v>
       </c>

--- a/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
+++ b/src/test/java/ServiceNow/CHARMS/Resources/RASScenario_Consent_Adult_Needs_LAR.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11027"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/muzipovay2/AquaProjects/CBIIT-Test-Automation/src/test/java/ServiceNow/CHARMS/Resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{83773752-87FD-7B4D-A1F7-8B9902020403}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B28D8F83-5DC2-4A4E-9201-055F72F65683}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" activeTab="1" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="17600" xr2:uid="{54739BCC-024D-1B43-9BD3-233381306DEA}"/>
   </bookViews>
   <sheets>
     <sheet name="rasE-ConsentAdult-NeedsLAR" sheetId="8" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="571" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="577" uniqueCount="407">
   <si>
     <t>Question</t>
   </si>
@@ -1316,6 +1316,24 @@
   </si>
   <si>
     <t>October 31, 1990</t>
+  </si>
+  <si>
+    <t>LAR 1 Name</t>
+  </si>
+  <si>
+    <t>LAR 2 Name</t>
+  </si>
+  <si>
+    <t>LAR One</t>
+  </si>
+  <si>
+    <t>LAR Two</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 1 Name</t>
+  </si>
+  <si>
+    <t>Parent/Guardian 2 Name</t>
   </si>
 </sst>
 </file>
@@ -1748,10 +1766,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4C412C3E-8140-164D-B3C6-DFE95A134A20}">
-  <dimension ref="A1:B43"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1842,211 +1860,237 @@
       </c>
       <c r="B12" s="15"/>
     </row>
-    <row r="13" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:2" ht="17" x14ac:dyDescent="0.2">
       <c r="A13" s="16" t="s">
         <v>361</v>
       </c>
       <c r="B13" s="15"/>
     </row>
-    <row r="14" spans="1:2" ht="51" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:2" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A14" s="16" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>362</v>
       </c>
-      <c r="B14" s="15"/>
-    </row>
-    <row r="15" spans="1:2" ht="34" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>363</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="B15" s="15"/>
+    </row>
+    <row r="16" spans="1:2" s="15" customFormat="1" ht="17" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>364</v>
-      </c>
-      <c r="B16" s="15" t="s">
-        <v>58</v>
+        <v>406</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A17" s="16" t="s">
+        <v>363</v>
+      </c>
+      <c r="B17" s="15" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A18" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A19" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="B19" s="15" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" ht="34" x14ac:dyDescent="0.2">
+      <c r="A20" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B20" s="15" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="18" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A18" s="16" t="s">
+    <row r="21" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A21" s="16" t="s">
+        <v>402</v>
+      </c>
+      <c r="B21" s="15" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A22" s="16" t="s">
         <v>366</v>
-      </c>
-      <c r="B18" s="15"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="B19" s="15"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A20" s="15" t="s">
-        <v>368</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A21" s="15" t="s">
-        <v>369</v>
-      </c>
-      <c r="B21" s="15" t="s">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A22" s="15" t="s">
-        <v>371</v>
       </c>
       <c r="B22" s="15"/>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="15" t="s">
-        <v>372</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>373</v>
-      </c>
+        <v>367</v>
+      </c>
+      <c r="B23" s="15"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="15" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B24" s="15" t="s">
-        <v>58</v>
+        <v>348</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="15" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B25" s="15" t="s">
-        <v>58</v>
+        <v>370</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="15" t="s">
-        <v>376</v>
-      </c>
-      <c r="B26" s="15" t="s">
-        <v>58</v>
-      </c>
+        <v>371</v>
+      </c>
+      <c r="B26" s="15"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="15" t="s">
-        <v>377</v>
+        <v>372</v>
       </c>
       <c r="B27" s="15" t="s">
-        <v>58</v>
+        <v>373</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="15" t="s">
-        <v>378</v>
-      </c>
-      <c r="B28" s="15"/>
+        <v>374</v>
+      </c>
+      <c r="B28" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="15" t="s">
-        <v>379</v>
-      </c>
-      <c r="B29" s="15"/>
+        <v>375</v>
+      </c>
+      <c r="B29" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="15" t="s">
-        <v>380</v>
-      </c>
-      <c r="B30" s="15"/>
+        <v>376</v>
+      </c>
+      <c r="B30" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="15" t="s">
-        <v>381</v>
-      </c>
-      <c r="B31" s="15"/>
+        <v>377</v>
+      </c>
+      <c r="B31" s="15" t="s">
+        <v>58</v>
+      </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="15" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="B32" s="15"/>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="15" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="B33" s="15"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="15" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B34" s="15"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="15" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B35" s="15"/>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="15" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B36" s="15"/>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="15" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B37" s="15"/>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="15" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="B38" s="15"/>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="15" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="B39" s="15"/>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="15" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="B40" s="15"/>
     </row>
-    <row r="41" spans="1:2" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="16" t="s">
-        <v>391</v>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A41" s="15" t="s">
+        <v>387</v>
       </c>
       <c r="B41" s="15"/>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="15" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="B42" s="15"/>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="15" t="s">
+        <v>389</v>
+      </c>
+      <c r="B43" s="15"/>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A44" s="15" t="s">
+        <v>390</v>
+      </c>
+      <c r="B44" s="15"/>
+    </row>
+    <row r="45" spans="1:2" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="B45" s="15"/>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A46" s="15" t="s">
+        <v>392</v>
+      </c>
+      <c r="B46" s="15"/>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A47" s="15" t="s">
         <v>393</v>
       </c>
-      <c r="B43" s="15"/>
+      <c r="B47" s="15"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2057,7 +2101,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2AAA49E6-03DB-BC47-B34D-065780B05137}">
   <dimension ref="A1:B45"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A40" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
